--- a/data/trans_camb/P17_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.4243842672548404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.168554204019132</v>
+        <v>-7.168554204019133</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.200230495431126</v>
@@ -655,7 +655,7 @@
         <v>-1.033084498138917</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-6.461650465124716</v>
+        <v>-6.461650465124719</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.609936479835196</v>
@@ -664,7 +664,7 @@
         <v>-0.7286890617252545</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.029989694510189</v>
+        <v>-7.029989694510191</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.777200513409702</v>
+        <v>2.573610056603689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.615542395967328</v>
+        <v>-3.524378633761423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.5968410698177</v>
+        <v>-11.65245091629732</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.477331814974241</v>
+        <v>3.195430419374638</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.56835687999009</v>
+        <v>-4.776789940691898</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.970671235719058</v>
+        <v>-10.00876469877107</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.619719545210014</v>
+        <v>3.768771676374733</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.653340603676236</v>
+        <v>-3.532298890391131</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.992744634008877</v>
+        <v>-10.09864007409538</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.5688424498663</v>
+        <v>11.13099524169182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.760925964917418</v>
+        <v>4.217302520859692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.728597958195052</v>
+        <v>-2.167302169569797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.51349782498882</v>
+        <v>11.82384731256643</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.161457911579303</v>
+        <v>2.509644689104738</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.24320226049326</v>
+        <v>-1.896408341651797</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.415778526230294</v>
+        <v>9.674581007653755</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.881243376180854</v>
+        <v>1.976840984938114</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.935970551332823</v>
+        <v>-3.901760222378823</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.04455558796316099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.278682562950771</v>
+        <v>-0.2786825629507711</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3080343930633023</v>
@@ -769,7 +769,7 @@
         <v>-0.03395816185906864</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3276095943426838</v>
+        <v>-0.3276095943426839</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1237314171682115</v>
+        <v>0.1252526392608942</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1757695895493233</v>
+        <v>-0.166718143194462</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5525660154945079</v>
+        <v>-0.5591355432243644</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1390783431549517</v>
+        <v>0.1253916628867654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.180744767805002</v>
+        <v>-0.1901465308850923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3942647359804801</v>
+        <v>-0.4100375282138188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.155935249341917</v>
+        <v>0.1594079466582459</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1580924236164824</v>
+        <v>-0.1538775505716745</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4354021515556322</v>
+        <v>-0.4415258861149315</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7148767850546969</v>
+        <v>0.7040329810842205</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3038247939615387</v>
+        <v>0.2672511724694856</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1572026509902314</v>
+        <v>-0.1380364540975653</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5470018723397609</v>
+        <v>0.5665394098540824</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1527717034798581</v>
+        <v>0.1181656927312229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1039840820159703</v>
+        <v>-0.09563778261708285</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4766113248396082</v>
+        <v>0.4762700686050639</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09678290242001385</v>
+        <v>0.1009931623964447</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1990222641471868</v>
+        <v>-0.1980519059486494</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.158697492625718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.212799290609628</v>
+        <v>-7.212799290609631</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.466219362323984</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.429558919629545</v>
+        <v>1.744315454729079</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.803940732322241</v>
+        <v>-7.210349521073129</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.02220438936425</v>
+        <v>-10.64290547814087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.757256141107469</v>
+        <v>-5.565983048274075</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-15.69715195880077</v>
+        <v>-15.3031386721773</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.13726206551338</v>
+        <v>-17.17298210522367</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5440062940744902</v>
+        <v>-0.7171146961758647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.32357495761586</v>
+        <v>-10.37281300401843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.65921460101412</v>
+        <v>-12.68431002790629</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.382032178273873</v>
+        <v>9.363958415945419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4885940574524414</v>
+        <v>-0.3785543814544318</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.934904477320492</v>
+        <v>-3.516512953480447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.712556742487326</v>
+        <v>2.303702050696387</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-7.818610524950886</v>
+        <v>-7.653917439267206</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-9.99557134197148</v>
+        <v>-9.991894063496334</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.121728403171173</v>
+        <v>5.129352875411592</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.052786974885248</v>
+        <v>-5.107336499046782</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.823757865176397</v>
+        <v>-7.536428532115838</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1896970631355485</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3290085044274115</v>
+        <v>-0.3290085044274116</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.04314909851365178</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06009748355616647</v>
+        <v>0.0745752689254595</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3318901237126305</v>
+        <v>-0.3126125853337714</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4629709279150915</v>
+        <v>-0.4471650199060688</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1576546559916608</v>
+        <v>-0.1551192463005696</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.436378283636197</v>
+        <v>-0.4298759709992729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.476521262065168</v>
+        <v>-0.4767744652442687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01865007108925886</v>
+        <v>-0.02510142014084622</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3513269495264326</v>
+        <v>-0.3513702604356883</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4324573810050791</v>
+        <v>-0.4327655926763902</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4606103903300262</v>
+        <v>0.4631126614223349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02362416901642411</v>
+        <v>-0.02025983002682166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1883601468884404</v>
+        <v>-0.1681804455468573</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08641039260919239</v>
+        <v>0.072867069800285</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2383805016336105</v>
+        <v>-0.2392353367975945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3191491820206641</v>
+        <v>-0.3124342603626825</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1870804236794239</v>
+        <v>0.1927136181794915</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1895822909826579</v>
+        <v>-0.1929586128188872</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2887321057694628</v>
+        <v>-0.2858664566322907</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-10.90164529705301</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-10.66073025934274</v>
+        <v>-10.66073025934275</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1295090608412541</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.689947294102634</v>
+        <v>-8.544776184955149</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.31362152937773</v>
+        <v>-14.58735027722805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.35763309239042</v>
+        <v>-14.42418703199048</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.254535193808358</v>
+        <v>-4.529470396978267</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.63315880166291</v>
+        <v>-16.00254005455563</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.6839993104888</v>
+        <v>-15.94039214359784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.205303328421063</v>
+        <v>-5.117873920824422</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.78038634869847</v>
+        <v>-14.08332687612719</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.72924950495141</v>
+        <v>-13.69869721677374</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.7828176557208626</v>
+        <v>-0.7751459463711691</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.067246939587061</v>
+        <v>-7.056704330294079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.07871264679664</v>
+        <v>-6.8424836243559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.469687056085084</v>
+        <v>4.013989986290673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.506270601201198</v>
+        <v>-7.279822008545304</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.48392977137989</v>
+        <v>-8.512961305798333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.306681819382082</v>
+        <v>0.5996405267270976</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-8.452013551277435</v>
+        <v>-8.385757551947773</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.444827928214549</v>
+        <v>-8.392266925955132</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4174229456028256</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4081983320751573</v>
+        <v>-0.4081983320751574</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.003994053658921523</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3831587962873991</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3824380529196536</v>
+        <v>-0.3824380529196535</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3055003242070843</v>
+        <v>-0.3119177413489976</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5247319703048847</v>
+        <v>-0.5215937545123426</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.514524039534151</v>
+        <v>-0.5162242343819861</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.125671896789238</v>
+        <v>-0.130660128216963</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4599157490330124</v>
+        <v>-0.4640076043399716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4562873102389141</v>
+        <v>-0.460186990802483</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1717730566951515</v>
+        <v>-0.1688976209552098</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4612653826893378</v>
+        <v>-0.4617934502850806</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4532083198280759</v>
+        <v>-0.4523065576220711</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.03157205615688348</v>
+        <v>-0.03323051016531031</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.289835916770988</v>
+        <v>-0.2904442999218963</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2777436589390771</v>
+        <v>-0.278187108564957</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1453381410362406</v>
+        <v>0.1301587222305734</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2452361058295883</v>
+        <v>-0.2360657476900003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.278054366237404</v>
+        <v>-0.2800231522422252</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01109370308795053</v>
+        <v>0.02223452612757266</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3043369417282037</v>
+        <v>-0.2970466438959564</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3061878860843437</v>
+        <v>-0.3045485814872225</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.839128191881704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-11.84270978874327</v>
+        <v>-11.84270978874326</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.876425694968605</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.796109533416928</v>
+        <v>-7.096739690306078</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.63357216999383</v>
+        <v>-11.28163776512445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.8581371825194</v>
+        <v>-16.84798357022316</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.869244826837061</v>
+        <v>-2.927158573847895</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.091666133226</v>
+        <v>-13.91999135523942</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-21.37758369982867</v>
+        <v>-21.62374562843742</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.050667119840871</v>
+        <v>-2.93306395826538</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.80196378029486</v>
+        <v>-9.998367547548497</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.05164771188482</v>
+        <v>-16.8554589696678</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.030246334729782</v>
+        <v>5.094456408600425</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8610003517254232</v>
+        <v>0.2186633376696841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.378829039834509</v>
+        <v>-7.014853594655543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.91274849082568</v>
+        <v>10.98621990307535</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4686916444286929</v>
+        <v>-1.088793651611594</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-10.44367529454381</v>
+        <v>-10.47779896146307</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.298468928402587</v>
+        <v>6.881292005298387</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.927466250759348</v>
+        <v>-1.051003070729156</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.671780662841801</v>
+        <v>-9.508372661435823</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2097104365937996</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4253271650558977</v>
+        <v>-0.4253271650558976</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1022709236906541</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1892935613737253</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4132210444519324</v>
+        <v>-0.4132210444519323</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2408257307888467</v>
+        <v>-0.2276614032185924</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3787125641337546</v>
+        <v>-0.3694995227294086</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5357340836619425</v>
+        <v>-0.5372538741203261</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06815589402053202</v>
+        <v>-0.0681396180597772</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3428133018712045</v>
+        <v>-0.3409082198979116</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5107103221146201</v>
+        <v>-0.509777809825694</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0894682303801845</v>
+        <v>-0.08561289058473648</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3115379778837563</v>
+        <v>-0.2968527527966378</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4900117394731553</v>
+        <v>-0.4866971229490819</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2130163350455936</v>
+        <v>0.206444122652065</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02727084267914528</v>
+        <v>0.01874081111970153</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2486788967819827</v>
+        <v>-0.2772245525777545</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3307802494899326</v>
+        <v>0.3231078242420034</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01618201870205405</v>
+        <v>-0.03110592799477557</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3007021561130259</v>
+        <v>-0.3114187082224622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2082800252952316</v>
+        <v>0.2327683187106128</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06410564002136494</v>
+        <v>-0.03517758136427598</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3328293738082075</v>
+        <v>-0.3226185229882754</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.380097303934347</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-8.780634970913631</v>
+        <v>-8.780634970913628</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.061011730391082</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4964400744501812</v>
+        <v>-0.5751988874674665</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.495778064144955</v>
+        <v>-7.328188712607833</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.88431382232462</v>
+        <v>-11.07890016393181</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.113965845744871</v>
+        <v>-0.2257561087001019</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.900596134670641</v>
+        <v>-9.973106166817798</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.71974624588978</v>
+        <v>-12.73694925677158</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3824730157904874</v>
+        <v>0.3341052435549851</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.029835262626172</v>
+        <v>-8.106714371389657</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.14737004003774</v>
+        <v>-11.33421770355836</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.639318676998535</v>
+        <v>3.581134335958423</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.407384634935629</v>
+        <v>-3.203794815133167</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.811224872559444</v>
+        <v>-6.899800747721098</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.476802201202384</v>
+        <v>4.383646798089425</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-5.448930267538772</v>
+        <v>-5.740095273871542</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.702481097405872</v>
+        <v>-8.721643649666147</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.516015186865509</v>
+        <v>3.408872877343564</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.123683916103312</v>
+        <v>-5.018908964414723</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-8.288785337504315</v>
+        <v>-8.474460243265755</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2277478581996714</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.37169788858583</v>
+        <v>-0.3716978885858299</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.06667398995485774</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02134381122764646</v>
+        <v>-0.02341353076985911</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2987508296094191</v>
+        <v>-0.2957634416098761</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4388740149394165</v>
+        <v>-0.4501994423903616</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.002824706991298129</v>
+        <v>-0.006593363166879881</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.308397656644482</v>
+        <v>-0.3116740871394658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3951072221421025</v>
+        <v>-0.3999786797204296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01402626935959903</v>
+        <v>0.01201979465529599</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2876000754482216</v>
+        <v>-0.2855211025497191</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3969748954242176</v>
+        <v>-0.4004268290701791</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1602136117524459</v>
+        <v>0.158425542899444</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1494013323477826</v>
+        <v>-0.1414657046529647</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2996271518065071</v>
+        <v>-0.3023100249458902</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1511127682910683</v>
+        <v>0.1459493433168713</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.183792900730588</v>
+        <v>-0.1903761621224845</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2933727472762897</v>
+        <v>-0.293389965484334</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1318937419980617</v>
+        <v>0.1283136498551519</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1934898537697482</v>
+        <v>-0.1847626118002653</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3125746716362675</v>
+        <v>-0.3151982344048873</v>
       </c>
     </row>
     <row r="34">
